--- a/template_master_file/template_bom_mst.xlsx
+++ b/template_master_file/template_bom_mst.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wwwroot\vmi\template_master_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F70EAE6-1BC7-49CB-A547-AA9C6C970767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69102A8-9A53-4E93-BFFC-F4C42399A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F01FDA4C-D8D1-4E82-83A0-7BDE0EDFE6E3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>FG Code Set ABT</t>
   </si>
@@ -65,140 +57,104 @@
     <t>Flute</t>
   </si>
   <si>
-    <t>RSC</t>
+    <t>Customer Code</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>WMS Min</t>
+  </si>
+  <si>
+    <t>WMS Max</t>
+  </si>
+  <si>
+    <t>VMI Min</t>
+  </si>
+  <si>
+    <t>VMI Max</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Space Paper</t>
+  </si>
+  <si>
+    <t>Ship to Type</t>
+  </si>
+  <si>
+    <t>Carton Code Normal</t>
+  </si>
+  <si>
+    <t>FG Code GDJ</t>
+  </si>
+  <si>
+    <t>Part Customer</t>
+  </si>
+  <si>
+    <t>Price Sale/Pcs</t>
+  </si>
+  <si>
+    <t>Cost/Pcs</t>
+  </si>
+  <si>
+    <t>Bom Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Show VMI</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ENR092</t>
+  </si>
+  <si>
+    <t>ENR092-PAD</t>
+  </si>
+  <si>
+    <t>PMM23AAE092X</t>
+  </si>
+  <si>
+    <t>ENR092-3081700991 กระดาษ5ชั้น 750x850</t>
+  </si>
+  <si>
+    <t>GDJR</t>
+  </si>
+  <si>
+    <t>GLONG-DUANG-JAI RETAIL CO.,LTD</t>
+  </si>
+  <si>
+    <t>PAD</t>
+  </si>
+  <si>
+    <t>ENR</t>
+  </si>
+  <si>
+    <t>CA105/3CA105/CA105</t>
   </si>
   <si>
     <t>BC</t>
   </si>
   <si>
-    <t>Customer Code</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>ALBATROSS LOGISTICS CO., LTD.</t>
-  </si>
-  <si>
-    <t>Packing</t>
-  </si>
-  <si>
-    <t>WMS Min</t>
-  </si>
-  <si>
-    <t>WMS Max</t>
-  </si>
-  <si>
-    <t>VMI Min</t>
-  </si>
-  <si>
-    <t>VMI Max</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Usage</t>
-  </si>
-  <si>
-    <t>Space Paper</t>
-  </si>
-  <si>
-    <t>Ship to Type</t>
-  </si>
-  <si>
-    <t>Carton Code Normal</t>
-  </si>
-  <si>
-    <t>FG Code GDJ</t>
-  </si>
-  <si>
-    <t>ABT1</t>
-  </si>
-  <si>
-    <t>Part Customer</t>
-  </si>
-  <si>
-    <t>Price Sale/Pcs</t>
-  </si>
-  <si>
-    <t>Cost/Pcs</t>
-  </si>
-  <si>
-    <t>IMC030-FOT-SNP1-A</t>
-  </si>
-  <si>
-    <t>PAD-IMC030-A</t>
-  </si>
-  <si>
-    <t>PMM03CC030X</t>
-  </si>
-  <si>
-    <t>IMC010-FOT-SNP1-A</t>
-  </si>
-  <si>
-    <t>RSC-IMC010-A</t>
-  </si>
-  <si>
-    <t>BAA23DC010R</t>
-  </si>
-  <si>
-    <t>IMC030 - PAD</t>
-  </si>
-  <si>
-    <t>TSESA</t>
-  </si>
-  <si>
-    <t>IMC030</t>
-  </si>
-  <si>
-    <t>PAD</t>
-  </si>
-  <si>
-    <t>FOT</t>
-  </si>
-  <si>
-    <t>CA125/CA125/CA125</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>TSESA-AB392611218ACMT01-A</t>
-  </si>
-  <si>
-    <t>IMC010 - RSC</t>
-  </si>
-  <si>
-    <t>TSRA</t>
-  </si>
-  <si>
-    <t>IMC010</t>
-  </si>
-  <si>
-    <t>CARTON BOX</t>
-  </si>
-  <si>
-    <t>KA150/3CA125/KA125</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>TSRA-F1EZ13L018AM(FOT)-A</t>
-  </si>
-  <si>
-    <t>TSESA-EB3Z16874B(FOT)-A</t>
+    <t>13.50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +164,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -250,11 +213,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -267,6 +245,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,44 +564,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E383D-E156-472D-BDDE-5FB8DC94B632}">
-  <dimension ref="A1:Z4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,31 +610,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>5</v>
@@ -665,40 +649,46 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="X1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -709,58 +699,58 @@
         <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="8">
+        <v>3081700991</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="4">
+        <v>750</v>
+      </c>
+      <c r="N2" s="4">
+        <v>850</v>
+      </c>
+      <c r="O2" s="4">
+        <v>6</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="R2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="4">
-        <v>230</v>
-      </c>
-      <c r="N2" s="4">
-        <v>270</v>
-      </c>
-      <c r="O2" s="4">
-        <v>3</v>
-      </c>
-      <c r="P2" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>43</v>
+      <c r="S2" s="5">
+        <v>10</v>
       </c>
       <c r="T2" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4">
         <v>0</v>
@@ -768,175 +758,81 @@
       <c r="W2" s="4">
         <v>0</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>3.8</v>
+      <c r="X2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>3081700991</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>18.89</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="4">
-        <v>140</v>
-      </c>
-      <c r="N3" s="4">
-        <v>240</v>
-      </c>
-      <c r="O3" s="4">
-        <v>120</v>
-      </c>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="4">
-        <v>60</v>
-      </c>
-      <c r="U3" s="4">
-        <v>100</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>4.76</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>4.76</v>
-      </c>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="4">
-        <v>140</v>
-      </c>
-      <c r="N4" s="4">
-        <v>240</v>
-      </c>
-      <c r="O4" s="4">
-        <v>120</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="4">
-        <v>60</v>
-      </c>
-      <c r="U4" s="4">
-        <v>100</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>4.76</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>4.76</v>
-      </c>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
